--- a/medicine/Enfance/Europa_(série_littéraire)/Europa_(série_littéraire).xlsx
+++ b/medicine/Enfance/Europa_(série_littéraire)/Europa_(série_littéraire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Europa_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Europa_(série_littéraire)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Europa est une série de romans policiers pour la jeunesse écrits par Béatrice Nicodème et Thierry Lefèvre et parue chez Nathan. Chaque tome se déroule dans un pays d'Europe différent.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Europa_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Europa_(série_littéraire)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On suit les aventures des enfants Cavendish, Jonathan  et Olivia, entraînés dans des enquêtes qui les dépassent lors de leurs voyages dans différents pays d'Europe, où ils suivent leur mère et sont parfois rejoints par leur père. Les deux adolescents suivent des cours par correspondance et ont donc beaucoup de loisir...  
 Leur journal intime, le log book rédigé par l'un et l'autre en alternance, raconte leurs aventures. À la fin de chaque roman, on trouve tantôt une recette (proposée par Olivia) du pays visité, tantôt une légende, tantôt un lexique des expressions farfelues inventées par Jon...
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Europa_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Europa_(série_littéraire)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Christopher, le père de Jon, d'origine écossaise, est souvent absent, accaparé par des chantiers lointains (Dubaï...), raison pour laquelle les enfants le surnomment Fuseau-horaire ou Étoile-filante. Il a épousé Tiphaine alors qu'elle était déjà enceinte de Vittorio, un séducteur napolitain, dont Olivia est la fille.
 Tiphaine, leur mère, d'origine française, écrit des guides touristiques et parcourt donc le monde pour ses recherches. Elle aussi a droit à ses surnoms : de la Sardine (« parce qu’elle est née à Douarnenez ») à Chouchen (« quand elle est sympa »). Même son énorme sac qui est surnommé Double-fond...
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Europa_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Europa_(série_littéraire)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Titres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">tome 1 Dossier Morden
 Nathan, 2007,  (ISBN 2092513540)
